--- a/Test/Excel/测试表.xlsx
+++ b/Test/Excel/测试表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangqiang/Program/ExcelParser/Test/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C602F5-3738-854B-BE72-8B78D6B25CC1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90E125F-AD04-8547-93A2-268571F74E13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17640" yWindow="10500" windowWidth="28220" windowHeight="15620" tabRatio="568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17640" yWindow="10480" windowWidth="28220" windowHeight="15620" tabRatio="568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="技能表" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>[Config]</t>
   </si>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3;4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>位置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -59,10 +55,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1;2;3;4;5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>list{ int }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -71,10 +63,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>list{obj{int:id; int:level}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>skill2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -83,7 +71,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{{1123;4.55};{5.234;6}{1;2}}</t>
+    <t>{123;222;334;4;5}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  {   3 ; 4 }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list{obj{int:id; float:level}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{1123;4.55};{5234;6} ; {1;2.3}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{11;2;3;4;5}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  {   0 ; 1 }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{1123;455};{5234;6} ; {1;23}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list{bool}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{true;false}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{true;true;true}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{你好;不懂}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Teddy;Chuan}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj{string:name; string: address}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -454,79 +498,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C8"/>
+  <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="61.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16">
+    <row r="4" spans="1:5" ht="16">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16">
+    <row r="5" spans="1:5" ht="16">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="16">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Test/Excel/测试表.xlsx
+++ b/Test/Excel/测试表.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangqiang/Program/ExcelParser/Test/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\ExcelParser\Test\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90E125F-AD04-8547-93A2-268571F74E13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E9A628-985C-4468-88DF-CF9A1FA47055}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17640" yWindow="10480" windowWidth="28220" windowHeight="15620" tabRatio="568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="技能表" sheetId="9" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>[Config]</t>
   </si>
@@ -128,6 +120,27 @@
   </si>
   <si>
     <t>obj{string:name; string: address}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Skill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj{obj{string:name;int:level}:player;obj{int:x;int:z}:pos}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +175,14 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -207,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -223,6 +244,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -498,38 +520,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="25.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="16">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16">
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -545,8 +570,11 @@
       <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="16">
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -563,7 +591,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -574,7 +602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -591,7 +619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -611,6 +639,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test/Excel/测试表.xlsx
+++ b/Test/Excel/测试表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\ExcelParser\Test\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E9A628-985C-4468-88DF-CF9A1FA47055}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32352814-A162-48BC-9E62-BB1BA26583BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>[Config]</t>
   </si>
@@ -141,6 +141,18 @@
   </si>
   <si>
     <t>obj{obj{string:name;int:level}:player;obj{int:x;int:z}:pos}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nestedObj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{名字;1};{3;4}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{名字;2};{33;44}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -520,13 +532,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H9"/>
+  <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -534,9 +546,12 @@
     <col min="1" max="1" width="61.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,17 +559,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -570,11 +585,11 @@
       <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -590,8 +605,11 @@
       <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="F6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -602,7 +620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -618,8 +636,11 @@
       <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -634,6 +655,9 @@
       </c>
       <c r="E9" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Test/Excel/测试表.xlsx
+++ b/Test/Excel/测试表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\ExcelParser\Test\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32352814-A162-48BC-9E62-BB1BA26583BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F19EDD-DDD2-4886-AFA2-131B0B9BA165}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="31">
   <si>
     <t>[Config]</t>
   </si>
@@ -123,23 +123,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Skill</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Data</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>obj{obj{string:name;int:level}:player;obj{int:x;int:z}:pos}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -153,6 +136,10 @@
   </si>
   <si>
     <t>{{名字;2};{33;44}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillData</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,22 +166,6 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -240,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -251,12 +222,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -538,126 +506,130 @@
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="61.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="4" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="4" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Test/Excel/测试表.xlsx
+++ b/Test/Excel/测试表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\ExcelParser\Test\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F19EDD-DDD2-4886-AFA2-131B0B9BA165}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A5D8E0-E729-4F19-97B4-44953CA066F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>[Config]</t>
   </si>
   <si>
-    <t>id,level</t>
-  </si>
-  <si>
     <t>MainTargetType:enum(None:0;Point:1;Direction:2)</t>
   </si>
   <si>
@@ -131,15 +128,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{{名字;1};{3;4}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{名字;2};{33;44}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{测试1;1};{3;4}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{信手斩龙;2};{33;44}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,success</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -500,135 +509,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F9"/>
+  <dimension ref="A2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="2"/>
+    <col min="2" max="2" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Test/Excel/测试表.xlsx
+++ b/Test/Excel/测试表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\ExcelParser\Test\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A5D8E0-E729-4F19-97B4-44953CA066F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBB9C42-B17F-4134-85CE-DF7B902B0FFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>[Config]</t>
   </si>
@@ -150,6 +150,9 @@
   <si>
     <t>id,success</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -596,7 +599,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>

--- a/Test/Excel/测试表.xlsx
+++ b/Test/Excel/测试表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\ExcelParser\Test\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBB9C42-B17F-4134-85CE-DF7B902B0FFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98971B2-FAD4-4069-A0BC-1432A56EF0AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>[Config]</t>
   </si>
   <si>
-    <t>MainTargetType:enum(None:0;Point:1;Direction:2)</t>
-  </si>
-  <si>
     <t>pos</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -60,34 +57,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{123;222;334;4;5}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  {   3 ; 4 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>list{obj{int:id; float:level}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{{1123;4.55};{5234;6} ; {1;2.3}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{11;2;3;4;5}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  {   0 ; 1 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{1123;455};{5234;6} ; {1;23}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>list{bool}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -96,26 +69,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{true;false}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{true;true;true}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>desc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{你好;不懂}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Teddy;Chuan}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>obj{string:name; string: address}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -132,14 +89,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{{测试1;1};{3;4}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{信手斩龙;2};{33;44}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -148,11 +97,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>id,success</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3 ; 4 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1123;4.55};{5234;6} ; {1;2.3}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好;不懂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{测试1;1};{3;4}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{信手斩龙;2};{33;44}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teddy;Chuan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;true;true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1123;455};{5234;6} ; {1;23}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    0 ; 1 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11;2;3;4;5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -518,7 +503,7 @@
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -538,77 +523,67 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -618,23 +593,18 @@
       <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -642,22 +612,22 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Test/Excel/测试表.xlsx
+++ b/Test/Excel/测试表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\ExcelParser\Test\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98971B2-FAD4-4069-A0BC-1432A56EF0AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FC4852-D1B3-4798-8F15-C683311D1A1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,7 +503,7 @@
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>

--- a/Test/Excel/测试表.xlsx
+++ b/Test/Excel/测试表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\ExcelParser\Test\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\ExcelLENT\Test\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FC4852-D1B3-4798-8F15-C683311D1A1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD99444-08C3-4A2F-971C-28FABCF0299B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
-    <t>[Config]</t>
-  </si>
-  <si>
     <t>pos</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -137,6 +134,10 @@
   </si>
   <si>
     <t>11;2;3;4;5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ExcelLENT]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +504,7 @@
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -520,70 +521,70 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -595,16 +596,16 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -612,22 +613,22 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Test/Excel/测试表.xlsx
+++ b/Test/Excel/测试表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\ExcelLENT\Test\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD99444-08C3-4A2F-971C-28FABCF0299B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367EB062-083D-4876-BF95-31EAC8A7C235}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>pos</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -138,6 +138,10 @@
   </si>
   <si>
     <t>[ExcelLENT]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-123;-112233</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -221,6 +225,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -504,13 +517,13 @@
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.375" style="2" bestFit="1" customWidth="1"/>
@@ -523,7 +536,7 @@
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -531,7 +544,7 @@
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -554,7 +567,7 @@
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -577,7 +590,7 @@
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -594,7 +607,9 @@
       <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
@@ -612,7 +627,7 @@
       <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
